--- a/EstudiantesBasico1ed.xlsx
+++ b/EstudiantesBasico1ed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54c0f6d37314c5f9/Documentos/HN Biology Investigation/Cursos/Analisis estadisticos 2023/Curso Basico/Primera Edicion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf7fb70a77b1475/HN_Biology_Investigation/CURSOS/R_basico/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D2F04E46CFB4ACB3E20CBF553FCD2683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B00947-A827-4F51-BE5C-4F6C50A8A4DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -521,18 +521,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.08984375" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -616,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -686,7 +686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -736,7 +736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -764,7 +764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -778,7 +778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -792,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
